--- a/tradept/Excel/Localization/english/C触发器_Triggers_Common_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C触发器_Triggers_Common_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF9CB2-F3BF-4797-80E1-7B7AB9707469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B39287-6A3F-4033-97CB-CCE655E7DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="15" r:id="rId1"/>
@@ -756,148 +756,145 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Tengo una misión para ti.</t>
-  </si>
-  <si>
     <t>Atacar</t>
   </si>
   <si>
-    <t>Reclutar</t>
-  </si>
-  <si>
-    <t>Tengo un problema con tu aliado…</t>
-  </si>
-  <si>
-    <t>Ya no necesito tus servicios.</t>
-  </si>
-  <si>
-    <t>[[yellow:Acerca de tu habilidad de comandar...]]</t>
-  </si>
-  <si>
-    <t>Dar un regalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-¿Qué puedo hacer por ti?</t>
-  </si>
-  <si>
-    <t>¿Tienes una misión para mí?</t>
-  </si>
-  <si>
-    <t>¿Necesitas que haga un recado por ti?</t>
-  </si>
-  <si>
-    <t>Tengo un problema con mi misión…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-¿Puedo hablar contigo sobre algo?</t>
-  </si>
-  <si>
-    <t>Inspecciona este escuadrón.</t>
-  </si>
-  <si>
-    <t>Quiero aprender tu habilidad.</t>
-  </si>
-  <si>
-    <t>Tengo una opinión sobre la gestión de grupos.</t>
-  </si>
-  <si>
-    <t>Convencer</t>
-  </si>
-  <si>
-    <t>¿Hay algún rumor reciente por aquí?</t>
-  </si>
-  <si>
-    <t>¿Qué opinas de mí?</t>
-  </si>
-  <si>
-    <t>¿A dónde quieres ir?</t>
-  </si>
-  <si>
-    <t>¿Sientes una profunda conexión o fuerte apego hacia alguien o algo?</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu perspectiva sobre el arcana, [$tagrole:name$]...?</t>
-  </si>
-  <si>
-    <t>Acerca de [$tagrole:campname$]…</t>
-  </si>
-  <si>
-    <t>Quiero preguntar sobre alguien…</t>
-  </si>
-  <si>
-    <t>Mercader de Jade Privado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tratamiento.</t>
-  </si>
-  <si>
-    <t>Tienda de Rosas Blancas.</t>
-  </si>
-  <si>
-    <t>Predicción del Clima.</t>
-  </si>
-  <si>
-    <t>Tienda de Carruajes.</t>
-  </si>
-  <si>
-    <t>Poción de Vida.</t>
-  </si>
-  <si>
-    <t>Tienda de Alquimia.</t>
-  </si>
-  <si>
-    <t>Fórmula Optimizada.</t>
-  </si>
-  <si>
-    <t>[[yellow:Bendición de las Estrellas.]]</t>
-  </si>
-  <si>
-    <t>[[yellow:El Oro engendra Oro.]]</t>
-  </si>
-  <si>
-    <t>Gran Oportunidad de Negocio.</t>
-  </si>
-  <si>
-    <t>Mercader Viajero.</t>
-  </si>
-  <si>
-    <t>Expande  tu Red de Contactos.</t>
-  </si>
-  <si>
-    <t>Reparación de Armas</t>
-  </si>
-  <si>
-    <t>Mejora de Equipo</t>
-  </si>
-  <si>
-    <t>Rumores sobre equipamientos.</t>
-  </si>
-  <si>
-    <t>Refinamiento de Armas.</t>
-  </si>
-  <si>
-    <t>Síntesis de Recuperación.</t>
-  </si>
-  <si>
-    <t>Síntesis Avanzada de Pociones.</t>
-  </si>
-  <si>
-    <t>Producción de Medicinas Secretas.</t>
-  </si>
-  <si>
-    <t>Pociones Superlativas.</t>
-  </si>
-  <si>
-    <t>Reclutamiento de Aventureros.</t>
-  </si>
-  <si>
-    <t>Líder de Mercenarios.</t>
-  </si>
-  <si>
-    <t>Conexión Social</t>
+    <t>Tenho uma missão para você.</t>
+  </si>
+  <si>
+    <t>Recrutar</t>
+  </si>
+  <si>
+    <t>Estou com um problema com seu aliado...</t>
+  </si>
+  <si>
+    <t>Não preciso mais dos seus serviços.</t>
+  </si>
+  <si>
+    <t>[[yellow:Sobre sua habilidade de comando...]]</t>
+  </si>
+  <si>
+    <t>Dar um presente</t>
+  </si>
+  <si>
+    <t>O que posso fazer por você?</t>
+  </si>
+  <si>
+    <t>Você tem uma missão para mim?</t>
+  </si>
+  <si>
+    <t>Precisa que eu faça um serviço para você?</t>
+  </si>
+  <si>
+    <t>Estou com um problema em minha missão...</t>
+  </si>
+  <si>
+    <t>Posso conversar com você sobre algo?</t>
+  </si>
+  <si>
+    <t>Inspecionar este esquadrão</t>
+  </si>
+  <si>
+    <t>Quero aprender sua habilidade.</t>
+  </si>
+  <si>
+    <t>Tenho uma opinião sobre o gerenciamento do grupo.</t>
+  </si>
+  <si>
+    <t>Conquistar</t>
+  </si>
+  <si>
+    <t>Algum rumor recente por aqui?</t>
+  </si>
+  <si>
+    <t>O que você acha de mim?</t>
+  </si>
+  <si>
+    <t>Para onde você quer ir?</t>
+  </si>
+  <si>
+    <t>Você sente fortemente por alguém ou algo?</t>
+  </si>
+  <si>
+    <t>Como você se sente em relação à arcana, [$tagrole:name$]...?</t>
+  </si>
+  <si>
+    <t>Sobre [$tagrole:campname$]...</t>
+  </si>
+  <si>
+    <t>Quero perguntar sobre alguém.</t>
+  </si>
+  <si>
+    <t>[[yellow:Ouro Gera Ouro.]]</t>
+  </si>
+  <si>
+    <t>[[yellow:Bênção das Estrelas]]</t>
+  </si>
+  <si>
+    <t>Previsão do Tempo</t>
+  </si>
+  <si>
+    <t>Mercador de Jade Privado</t>
+  </si>
+  <si>
+    <t>Fórmula Otimizada</t>
+  </si>
+  <si>
+    <t>Loja de Alquimia</t>
+  </si>
+  <si>
+    <t>Tratamento</t>
+  </si>
+  <si>
+    <t>Poção de Vida</t>
+  </si>
+  <si>
+    <t>Loja Rosa Branca</t>
+  </si>
+  <si>
+    <t>Loja de Carruagens</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade de Negócio</t>
+  </si>
+  <si>
+    <t>Mercador Viajante</t>
+  </si>
+  <si>
+    <t>Expanda Sua Rede</t>
+  </si>
+  <si>
+    <t>Conserto de Armas</t>
+  </si>
+  <si>
+    <t>Melhoria de Equipamento</t>
+  </si>
+  <si>
+    <t>Rumores sobre Equipamentos</t>
+  </si>
+  <si>
+    <t>Refinamento de Armas</t>
+  </si>
+  <si>
+    <t>Síntese de Recuperação</t>
+  </si>
+  <si>
+    <t>Síntese de Poção Avançada</t>
+  </si>
+  <si>
+    <t>Produção de Medicamentos Secretos</t>
+  </si>
+  <si>
+    <t>Poções de Qualidade Superior</t>
+  </si>
+  <si>
+    <t>Recrutamento para Jornada</t>
+  </si>
+  <si>
+    <t>Líder Mercenário</t>
+  </si>
+  <si>
+    <t>Conexão Social</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1245,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
@@ -1554,14 +1551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
@@ -2047,7 +2044,7 @@
         <v>83</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="22.5">
@@ -2058,7 +2055,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2069,7 +2066,7 @@
         <v>86</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2604,7 +2601,7 @@
         <v>175</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="33.75">
@@ -2615,7 +2612,7 @@
         <v>177</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="33.75">
@@ -2626,7 +2623,7 @@
         <v>179</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="33.75">
@@ -2637,7 +2634,7 @@
         <v>181</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2655,7 +2652,7 @@
         <v>221</v>
       </c>
       <c r="C155" s="44" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="52.5" customHeight="1">
@@ -2666,10 +2663,10 @@
         <v>222</v>
       </c>
       <c r="C156" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="22.5">
       <c r="A157" s="11" t="s">
         <v>185</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>186</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="33.75">
@@ -2688,7 +2685,7 @@
         <v>188</v>
       </c>
       <c r="C158" s="44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="33.75">
@@ -2699,7 +2696,7 @@
         <v>190</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="33.75">
@@ -2710,7 +2707,7 @@
         <v>192</v>
       </c>
       <c r="C160" s="44" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="33.75">
